--- a/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
@@ -666,7 +666,10 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>Scan product if shelf tag won't scan.
+Use Category 000
+No prices on DCs - QTY only
+FOR NOT ON FILES: force in with quantity, put one item in cart w/ price on a sticky note</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -719,11 +722,7 @@
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -770,11 +769,7 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OUTPOST NATURAL FOODS, BAY VIEW</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -821,11 +816,7 @@
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2826 S KINNICKINNIC AVE</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -868,11 +859,7 @@
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/5hiyyxywjiH2</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -915,7 +902,11 @@
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -957,21 +948,13 @@
       <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
@@ -1004,14 +987,10 @@
       <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>OUTPOST NATURAL FOODS, BAY VIEW</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1073,14 +1052,10 @@
       <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>2826 S KINNICKINNIC AVE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -1132,14 +1107,10 @@
       <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>https://goo.gl/maps/5hiyyxywjiH2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -1206,9 +1177,21 @@
       <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
@@ -1253,10 +1236,14 @@
       <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1304,10 +1291,14 @@
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1343,10 +1334,14 @@
       <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MEQUON</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1383,11 +1378,7 @@
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>7590 W MEQUON RD</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1426,11 +1417,7 @@
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/do2xmdVUL8z</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1469,7 +1456,11 @@
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1503,21 +1494,13 @@
       <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>White Camry available, Equip</t>
-        </is>
-      </c>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
@@ -1562,14 +1545,10 @@
       <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>OUTPOST NATURAL FOODS, MEQUON</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1613,14 +1592,10 @@
       <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>7590 W MEQUON RD</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1676,14 +1651,10 @@
       <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>https://goo.gl/maps/do2xmdVUL8z</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1724,16 +1695,8 @@
       <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>NasZire</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -1772,9 +1735,21 @@
       <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>White Camry available, Equip</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -1807,8 +1782,16 @@
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1846,10 +1829,14 @@
       <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1881,10 +1868,14 @@
       <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1917,11 +1908,7 @@
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -1956,11 +1943,7 @@
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>100 E CAPITOL DR</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -1997,7 +1980,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2030,7 +2013,11 @@
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -2072,21 +2059,13 @@
       <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
@@ -2123,21 +2102,13 @@
       <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>100 E CAPITOL DR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
@@ -2174,21 +2145,13 @@
       <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
@@ -2221,21 +2184,9 @@
       <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
@@ -2282,17 +2233,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2319,9 +2270,21 @@
       <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -2346,9 +2309,21 @@
       <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
@@ -2385,13 +2360,21 @@
       <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
@@ -2428,13 +2411,21 @@
       <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
@@ -2468,11 +2459,7 @@
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
-        </is>
-      </c>
+      <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
@@ -2503,11 +2490,7 @@
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>7000 W STATE ST</t>
-        </is>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
@@ -2540,7 +2523,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2573,7 +2556,11 @@
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
@@ -2603,21 +2590,13 @@
       <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
@@ -2642,21 +2621,13 @@
       <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>7000 W STATE ST</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
@@ -2694,21 +2665,13 @@
       <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
@@ -2745,21 +2708,9 @@
       <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
@@ -2794,17 +2745,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2843,9 +2794,21 @@
       <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -2870,9 +2833,21 @@
       <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
@@ -2897,9 +2872,21 @@
       <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
@@ -2928,9 +2915,21 @@
       <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">

--- a/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
@@ -1985,7 +1985,11 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Small reset in produce area</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>

--- a/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
@@ -2818,7 +2818,11 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>

--- a/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1341,10 +1341,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
@@ -1836,7 +1840,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -1875,7 +1879,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1907,8 +1911,16 @@
       <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NasZire</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -1978,11 +1990,7 @@
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -2019,7 +2027,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2066,7 +2074,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2109,7 +2117,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>100 E CAPITOL DR</t>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -2152,7 +2160,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+          <t>100 E CAPITOL DR</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2189,7 +2197,11 @@
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -2235,21 +2247,9 @@
       <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2276,17 +2276,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2315,12 +2315,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2366,12 +2366,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2417,12 +2417,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2462,9 +2462,21 @@
       <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
@@ -2525,11 +2537,7 @@
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
@@ -2562,7 +2570,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2597,7 +2605,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2628,7 +2636,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7000 W STATE ST</t>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2672,7 +2680,7 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2713,7 +2721,11 @@
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
@@ -2747,21 +2759,9 @@
       <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
@@ -2800,17 +2800,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2843,12 +2843,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2882,12 +2882,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2925,12 +2925,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2966,9 +2966,21 @@
       <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">

--- a/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
@@ -2172,7 +2172,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>

--- a/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
@@ -1095,7 +1095,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1226,7 +1226,11 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
@@ -1281,7 +1285,11 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
@@ -2344,7 +2352,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2395,7 +2403,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2444,7 +2452,11 @@
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -2487,7 +2499,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>MARIANO'S #524 RX ONLY, NORTHFIELD</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -2518,7 +2534,11 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1822 WILLOW RD</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -2549,7 +2569,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/jdSWvCFJ2cU2</t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -2614,9 +2638,21 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>White Camry, Equip</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -2818,11 +2854,7 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>

--- a/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
+++ b/06-29-25 to 07-05-25 Milwaukee Schedule.xlsx
@@ -1636,21 +1636,9 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
